--- a/nuon/instagram_posts_little_juny.xlsx
+++ b/nuon/instagram_posts_little_juny.xlsx
@@ -3012,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>14</v>
@@ -3059,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="E23">
         <v>145</v>
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>43</v>
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>52</v>
@@ -3294,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="E26">
         <v>157</v>
@@ -3341,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>22</v>
@@ -3388,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3435,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -3623,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>686</v>
       </c>
       <c r="E33">
         <v>70</v>
@@ -3670,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>110</v>
@@ -3717,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -3764,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>354</v>
       </c>
       <c r="E36">
         <v>175</v>
@@ -3811,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -3858,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>62</v>
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="E42">
         <v>109</v>
@@ -4093,7 +4093,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -4187,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4234,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4281,7 +4281,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>862</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -4328,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>44</v>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>9</v>
